--- a/producthunt_top_products_2025-07-30.xlsx
+++ b/producthunt_top_products_2025-07-30.xlsx
@@ -468,20 +468,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tesla Diner</t>
+          <t>ToolSDK.ai</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>24/7 Diner where you can eat, charge, and watch movies</t>
+          <t>5000+ MCP Servers AI Tools, 1 Lines of Code</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/tesla-diner?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/toolsdk-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -493,20 +493,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meet-Ting</t>
+          <t xml:space="preserve">Rustic AI </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Free AI assistant for email scheduling in early access</t>
+          <t>Your visual AI design editor</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/meet-ting?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/rustic-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -518,20 +518,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Setter AI</t>
+          <t>Meet-Ting</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Turn website visitors into booked calls</t>
+          <t>Free AI assistant for email scheduling in early access</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/setter-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/meet-ting?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -543,20 +543,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ideogram Character</t>
+          <t>Droidrun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Persistent character model that works with a single image</t>
+          <t>Give AI native control of physical &amp; virtual phones.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/ideogram?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/droidrun-framework-for-mobile-agent?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -568,20 +568,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Droidrun</t>
+          <t>ChatGPT study mode</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Give AI native control of physical &amp; virtual phones.</t>
+          <t>A new way to learn with ChatGPT</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/droidrun-framework-for-mobile-agent?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/openai-api?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -593,20 +593,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ChatGPT study mode</t>
+          <t>Cubox AI 3.0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>A new way to learn with ChatGPT</t>
+          <t>Library Insight for everything you’ve saved.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/openai-api?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/cubox?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -618,20 +618,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rustic AI </t>
+          <t>Setter AI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Your visual AI design editor</t>
+          <t>Turn website visitors into booked calls</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/rustic-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/setter-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -643,20 +643,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ToolSDK.ai</t>
+          <t>Ideogram Character</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5000+ MCP Servers AI Tools, 1 Lines of Code</t>
+          <t>Persistent character model that works with a single image</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/toolsdk-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/ideogram?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -668,20 +668,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cubox AI 3.0</t>
+          <t>Lock-in</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Library Insight for everything you’ve saved.</t>
+          <t>your personal focus assistant</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/cubox?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/lock-in-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -843,20 +843,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Notion-style editor for Tiptap Cloud</t>
+          <t>Wan 2.2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Collaborative block-based editor → ready to drop in your app</t>
+          <t>The first open MoE model for AI video generation</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/tiptap?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/wan-2-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -868,20 +868,20 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Wan 2.2</t>
+          <t>Notion-style editor for Tiptap Cloud</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>The first open MoE model for AI video generation</t>
+          <t>Collaborative block-based editor → ready to drop in your app</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/wan-2-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/tiptap?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -893,20 +893,20 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>sndmyself</t>
+          <t>Layout.dev</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The simplest way to send yourself a message</t>
+          <t>Turn ideas into prototypes — in seconds</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/sndmyself?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/layout-dev?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -918,20 +918,20 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Lumo by Proton</t>
+          <t>sndmyself</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Privacy-first AI assistant with confidential conversations</t>
+          <t>The simplest way to send yourself a message</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/proton-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/sndmyself?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -943,20 +943,20 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Layout.dev</t>
+          <t>Lumo by Proton</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Turn ideas into prototypes — in seconds</t>
+          <t>Privacy-first AI assistant with confidential conversations</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/layout-dev?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/proton-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1093,20 +1093,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Singify AI Vocal Remover</t>
+          <t>Guidey</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Remove vocals from any song</t>
+          <t>Add modern onboarding tours to your product in minutes</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/singify-ai-vocal-remover?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/guidey?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -1118,20 +1118,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chive</t>
+          <t>Singify AI Vocal Remover</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The macOS companion for Claude Code</t>
+          <t>Remove vocals from any song</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/chive?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/singify-ai-vocal-remover?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -1143,20 +1143,20 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Guidey</t>
+          <t>Chive</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Add modern onboarding tours to your product in minutes</t>
+          <t>The macOS companion for Claude Code</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/guidey?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/chive?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>571</v>
+        <v>584</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1343,20 +1343,20 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bilbo</t>
+          <t>Google Search Web Guide</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Metabase AI Agent</t>
+          <t>An experimental AI-organized search results page</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/bilbo?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/google-labs?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -1368,20 +1368,20 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Google Search Web Guide</t>
+          <t>Bilbo</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>An experimental AI-organized search results page</t>
+          <t>Metabase AI Agent</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/google-labs?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/bilbo?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>914</v>
+        <v>857</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1993,20 +1993,20 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Lovable Agent Mode</t>
+          <t>Well Embed</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Lovable now thinks, plans, and acts on its own</t>
+          <t>Streamline payables with robots chasing invoices &amp; receipts</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>448</v>
+        <v>612</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/lovable?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/well-embed?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2018,20 +2018,20 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Well Embed</t>
+          <t>Company Dataset</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Streamline payables with robots chasing invoices &amp; receipts</t>
+          <t>Full company data on millions of profile</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>423</v>
+        <v>529</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/well-embed?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/company-dataset?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2043,20 +2043,20 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Company Dataset</t>
+          <t>Lovable Agent Mode</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Full company data on millions of profile</t>
+          <t>Lovable now thinks, plans, and acts on its own</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/company-dataset?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/lovable?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2118,20 +2118,20 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Mantle Starter</t>
+          <t>GitHub Spark</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Free cap table management platform for early-stage founders</t>
+          <t>AI platform for building + deploying full-stack apps</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/withmantle?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/github?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2143,20 +2143,20 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GitHub Spark</t>
+          <t>Microtica AI Incident Investigator</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AI platform for building + deploying full-stack apps</t>
+          <t>An AI Agent that tells you why your systems break</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/github?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/microtica-ai-agents-for-devops?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2168,20 +2168,20 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Microtica AI Incident Investigator</t>
+          <t>Mantle Starter</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>An AI Agent that tells you why your systems break</t>
+          <t>Free cap table management platform for early-stage founders</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/microtica-ai-agents-for-devops?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/withmantle?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2368,12 +2368,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>LLMs.txt Generator</t>
+          <t>Super for iOS</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Convert websites to LLMs.txt format in seconds</t>
+          <t>Counter/Activity Tracking hybrid app for minimalists</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -2381,7 +2381,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/llms-txt-generator-3?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/super-counter-for-ios?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2393,12 +2393,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Super for iOS</t>
+          <t>LLMs.txt Generator</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Counter/Activity Tracking hybrid app for minimalists</t>
+          <t>Convert websites to LLMs.txt format in seconds</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -2406,7 +2406,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/super-counter-for-ios?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/llms-txt-generator-3?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2518,20 +2518,20 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Agents Base Phone Agents</t>
+          <t>Kanba</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>World's first synthetic influencer network for content</t>
+          <t>Open-source project management tool for modern teams</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>301</v>
+        <v>402</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/agents-base?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/kanba?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2543,20 +2543,20 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Kanba</t>
+          <t>Agents Base Phone Agents</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Open-source project management tool for modern teams</t>
+          <t>World's first synthetic influencer network for content</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>269</v>
+        <v>301</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/kanba?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/agents-base?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2768,20 +2768,20 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>the gist of</t>
+          <t>Trae 2.0</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Go beyond the link in bio. Tell a story. </t>
+          <t>SOLO: Context Engineer that delivers software end-to-end</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>462</v>
+        <v>635</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/the-gist-of?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/trae?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -2793,20 +2793,20 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Trae 2.0</t>
+          <t>the gist of</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SOLO: Context Engineer that delivers software end-to-end</t>
+          <t xml:space="preserve">Go beyond the link in bio. Tell a story. </t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/trae?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/the-gist-of?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>1090</v>
+        <v>905</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>349</v>
+        <v>441</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>811</v>
+        <v>1178</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -4243,20 +4243,20 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MCP for Google Sheets</t>
+          <t>Finlens</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Connect direct to Salesforce &amp; HubSpot with native formulas</t>
+          <t>AI accounting for founders &amp; accountants</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>632</v>
+        <v>661</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/coefficient?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/finlens?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -4268,20 +4268,20 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Finlens</t>
+          <t>MCP for Google Sheets</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AI accounting for founders &amp; accountants</t>
+          <t>Connect direct to Salesforce &amp; HubSpot with native formulas</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/finlens?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/coefficient?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -4293,20 +4293,20 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PPT.AI</t>
+          <t>AI Voice Agent SDK</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Imagine Cursor, but for PowerPoint presentations</t>
+          <t>The open-source framework for real-time AI voice</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/ppt-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/video-sdk?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -4318,20 +4318,20 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AI Voice Agent SDK</t>
+          <t>PPT.AI</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>The open-source framework for real-time AI voice</t>
+          <t>Imagine Cursor, but for PowerPoint presentations</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>359</v>
+        <v>276</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/video-sdk?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/ppt-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>191</v>
+        <v>235</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4943,20 +4943,20 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DummyForms</t>
+          <t>SnapShare</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Create beautiful forms in seconds</t>
+          <t>Redefining Event Photography</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/dummyforms?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/snapshare-4?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -5168,12 +5168,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Escape the AI loop - Build better</t>
+          <t>Promer AI: Ad Creative Studio</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Become an AI Developer in a few weeks</t>
+          <t>Create ad visuals like Top Brand. No designer needed.</t>
         </is>
       </c>
       <c r="D190" t="n">
@@ -5181,7 +5181,7 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/speed-build-marketplace-ai-course?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/promer-ai-ad-creative-studio?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -5193,12 +5193,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Promer AI: Ad Creative Studio</t>
+          <t>Escape the AI loop - Build better</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Create ad visuals like Top Brand. No designer needed.</t>
+          <t>Become an AI Developer in a few weeks</t>
         </is>
       </c>
       <c r="D191" t="n">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>https://www.producthunt.com/products/promer-ai-ad-creative-studio?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
+          <t>https://www.producthunt.com/products/speed-build-marketplace-ai-course?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+sokkertest+%28ID%3A+209846%29</t>
         </is>
       </c>
     </row>
@@ -5477,7 +5477,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>531</v>
+        <v>656</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
